--- a/SIS_data.xlsx
+++ b/SIS_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayg\Documents\Football\Baker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F031C85-953C-412D-929E-A67A041FADE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A0B25-3791-4634-8585-E449B105214E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -944,15 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,6 +986,16 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1355,472 +1356,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C51FF-4E8F-4BDB-B1A1-EE87ADBE3741}">
-  <dimension ref="B2:K18"/>
+  <dimension ref="C2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="2" max="2" width="0.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="21">
         <v>0.21011673151750973</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="21">
         <v>0.84824902723735407</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="21">
         <v>0.10116731517509728</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="21">
         <v>2.3346303501945526E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="22">
         <v>9.5726495726495724</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="22">
         <v>2.7782101167315174</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="21">
         <v>0.24124513618677043</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="21">
         <v>0.54474708171206221</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L3" s="11">
         <v>0.1517509727626459</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D4" s="13">
         <v>23</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E4" s="13">
         <v>9</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="13">
         <v>10</v>
       </c>
-      <c r="F4" s="16">
+      <c r="G4" s="13">
         <v>28</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="13">
         <v>3</v>
       </c>
-      <c r="H4" s="16">
+      <c r="I4" s="13">
         <v>14</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="13">
         <v>23</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="21">
         <v>0.24905660377358491</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="21">
         <v>0.8226415094339623</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="21">
         <v>0.13207547169811321</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="21">
         <v>2.6415094339622643E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="22">
         <v>9.85</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="22">
         <v>2.7396226415094338</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="21">
         <v>0.24905660377358491</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="21">
         <v>0.52075471698113207</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="11">
         <v>0.12075471698113208</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="23">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="23">
         <v>12</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="23">
         <v>2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="23">
         <v>26</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="23">
         <v>2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="23">
         <v>19</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="23">
         <v>21</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="23">
         <v>6</v>
       </c>
-      <c r="K8" s="18">
+      <c r="L8" s="15">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="19">
+      <c r="D9" s="16">
         <v>11</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E9" s="16">
         <v>-3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="F9" s="16">
         <v>8</v>
       </c>
-      <c r="F9" s="19">
+      <c r="G9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H9" s="16">
         <v>1</v>
       </c>
-      <c r="H9" s="19">
+      <c r="I9" s="16">
         <v>-5</v>
       </c>
-      <c r="I9" s="19">
+      <c r="J9" s="16">
         <v>2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="K9" s="16">
         <v>-4</v>
       </c>
-      <c r="K9" s="20">
+      <c r="L9" s="17">
         <v>-13</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="21">
         <v>0.28846153846153844</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="21">
         <v>0.82167832167832167</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="21">
         <v>0.13286713286713286</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="21">
         <v>3.6713286713286712E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="H12" s="22">
         <v>8.6052631578947363</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="22">
         <v>2.7307692307692308</v>
       </c>
-      <c r="I12" s="7">
+      <c r="J12" s="21">
         <v>0.30594405594405594</v>
       </c>
-      <c r="J12" s="7">
+      <c r="K12" s="21">
         <v>0.4737762237762238</v>
       </c>
-      <c r="K12" s="14">
+      <c r="L12" s="11">
         <v>0.1381118881118881</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="23">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="23">
         <v>16</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="23">
         <v>27</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="23">
         <v>12</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="23">
         <v>18</v>
       </c>
-      <c r="I13" s="9">
+      <c r="J13" s="23">
         <v>9</v>
       </c>
-      <c r="J13" s="9">
+      <c r="K13" s="23">
         <v>15</v>
       </c>
-      <c r="K13" s="18">
+      <c r="L13" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="19">
+      <c r="D14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="19">
+      <c r="E14" s="16">
         <v>-4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="16">
         <v>-1</v>
       </c>
-      <c r="F14" s="19">
+      <c r="G14" s="16">
         <v>-1</v>
       </c>
-      <c r="G14" s="19">
+      <c r="H14" s="16">
         <v>-10</v>
       </c>
-      <c r="H14" s="19">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="16">
         <v>12</v>
       </c>
-      <c r="J14" s="19">
+      <c r="K14" s="16">
         <v>-9</v>
       </c>
-      <c r="K14" s="20">
+      <c r="L14" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="H16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="I16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="J16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="K16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="7">
+      <c r="D17" s="21">
         <v>0.30020283975659229</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17" s="21">
         <v>0.50709939148073024</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="21">
         <v>0.11764705882352941</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="21">
         <v>0.11967545638945233</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="22">
         <v>7.440860215053763</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="22">
         <v>2.1196754563894524</v>
       </c>
-      <c r="I17" s="7">
+      <c r="J17" s="21">
         <v>0.20283975659229209</v>
       </c>
-      <c r="J17" s="7">
+      <c r="K17" s="21">
         <v>0.43407707910750509</v>
       </c>
-      <c r="K17" s="14">
+      <c r="L17" s="11">
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="16">
+      <c r="D18" s="13">
         <v>9</v>
       </c>
-      <c r="D18" s="16">
+      <c r="E18" s="13">
         <v>32</v>
       </c>
-      <c r="E18" s="16">
+      <c r="F18" s="13">
         <v>6</v>
       </c>
-      <c r="F18" s="16">
+      <c r="G18" s="13">
         <v>2</v>
       </c>
-      <c r="G18" s="16">
+      <c r="H18" s="13">
         <v>27</v>
       </c>
-      <c r="H18" s="16">
+      <c r="I18" s="13">
         <v>32</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J18" s="13">
         <v>27</v>
       </c>
-      <c r="J18" s="16">
+      <c r="K18" s="13">
         <v>23</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="14">
         <v>14</v>
       </c>
     </row>
